--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Dll4-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Dll4-Notch1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>27.62133033333333</v>
+        <v>45.98144433333334</v>
       </c>
       <c r="H2">
-        <v>82.863991</v>
+        <v>137.944333</v>
       </c>
       <c r="I2">
-        <v>0.984261144236963</v>
+        <v>0.9841234286873372</v>
       </c>
       <c r="J2">
-        <v>0.9842611442369629</v>
+        <v>0.984123428687337</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>47.57896333333333</v>
+        <v>70.46291600000001</v>
       </c>
       <c r="N2">
-        <v>142.73689</v>
+        <v>211.388748</v>
       </c>
       <c r="O2">
-        <v>0.4501884529482371</v>
+        <v>0.5276750397950939</v>
       </c>
       <c r="P2">
-        <v>0.450188452948237</v>
+        <v>0.5276750397950939</v>
       </c>
       <c r="Q2">
-        <v>1314.194263147554</v>
+        <v>3239.986649618343</v>
       </c>
       <c r="R2">
-        <v>11827.74836832799</v>
+        <v>29159.87984656509</v>
       </c>
       <c r="S2">
-        <v>0.4431030018211</v>
+        <v>0.5192973693958749</v>
       </c>
       <c r="T2">
-        <v>0.4431030018210999</v>
+        <v>0.5192973693958748</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>27.62133033333333</v>
+        <v>45.98144433333334</v>
       </c>
       <c r="H3">
-        <v>82.863991</v>
+        <v>137.944333</v>
       </c>
       <c r="I3">
-        <v>0.984261144236963</v>
+        <v>0.9841234286873372</v>
       </c>
       <c r="J3">
-        <v>0.9842611442369629</v>
+        <v>0.984123428687337</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>29.489171</v>
       </c>
       <c r="O3">
-        <v>0.09300808131111739</v>
+        <v>0.07361176802536967</v>
       </c>
       <c r="P3">
-        <v>0.09300808131111736</v>
+        <v>0.07361176802536967</v>
       </c>
       <c r="Q3">
-        <v>271.5100444823846</v>
+        <v>451.9848915908826</v>
       </c>
       <c r="R3">
-        <v>2443.590400341461</v>
+        <v>4067.864024317943</v>
       </c>
       <c r="S3">
-        <v>0.09154424053456489</v>
+        <v>0.0724430655408637</v>
       </c>
       <c r="T3">
-        <v>0.09154424053456485</v>
+        <v>0.07244306554086369</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>27.62133033333333</v>
+        <v>45.98144433333334</v>
       </c>
       <c r="H4">
-        <v>82.863991</v>
+        <v>137.944333</v>
       </c>
       <c r="I4">
-        <v>0.984261144236963</v>
+        <v>0.9841234286873372</v>
       </c>
       <c r="J4">
-        <v>0.9842611442369629</v>
+        <v>0.984123428687337</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>37.34441866666666</v>
+        <v>42.505498</v>
       </c>
       <c r="N4">
-        <v>112.033256</v>
+        <v>127.516494</v>
       </c>
       <c r="O4">
-        <v>0.3533499868001453</v>
+        <v>0.3183105613832428</v>
       </c>
       <c r="P4">
-        <v>0.3533499868001453</v>
+        <v>0.3183105613832428</v>
       </c>
       <c r="Q4">
-        <v>1031.502524098299</v>
+        <v>1954.464190147611</v>
       </c>
       <c r="R4">
-        <v>9283.522716884696</v>
+        <v>17590.1777113285</v>
       </c>
       <c r="S4">
-        <v>0.3477886623240268</v>
+        <v>0.313256881055868</v>
       </c>
       <c r="T4">
-        <v>0.3477886623240267</v>
+        <v>0.313256881055868</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>27.62133033333333</v>
+        <v>45.98144433333334</v>
       </c>
       <c r="H5">
-        <v>82.863991</v>
+        <v>137.944333</v>
       </c>
       <c r="I5">
-        <v>0.984261144236963</v>
+        <v>0.9841234286873372</v>
       </c>
       <c r="J5">
-        <v>0.9842611442369629</v>
+        <v>0.984123428687337</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.933664</v>
+        <v>10.73653933333333</v>
       </c>
       <c r="N5">
-        <v>32.80099199999999</v>
+        <v>32.209618</v>
       </c>
       <c r="O5">
-        <v>0.1034534789405002</v>
+        <v>0.08040263079629371</v>
       </c>
       <c r="P5">
-        <v>0.1034534789405002</v>
+        <v>0.08040263079629371</v>
       </c>
       <c r="Q5">
-        <v>302.0023450976746</v>
+        <v>493.6815856883105</v>
       </c>
       <c r="R5">
-        <v>2718.021105879071</v>
+        <v>4443.134271194794</v>
       </c>
       <c r="S5">
-        <v>0.1018252395572713</v>
+        <v>0.07912611269473066</v>
       </c>
       <c r="T5">
-        <v>0.1018252395572713</v>
+        <v>0.07912611269473065</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>0.314602</v>
       </c>
       <c r="I6">
-        <v>0.003736852651705335</v>
+        <v>0.002244435796517234</v>
       </c>
       <c r="J6">
-        <v>0.003736852651705335</v>
+        <v>0.002244435796517234</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>47.57896333333333</v>
+        <v>70.46291600000001</v>
       </c>
       <c r="N6">
-        <v>142.73689</v>
+        <v>211.388748</v>
       </c>
       <c r="O6">
-        <v>0.4501884529482371</v>
+        <v>0.5276750397950939</v>
       </c>
       <c r="P6">
-        <v>0.450188452948237</v>
+        <v>0.5276750397950939</v>
       </c>
       <c r="Q6">
-        <v>4.98947900753111</v>
+        <v>7.389258099810667</v>
       </c>
       <c r="R6">
-        <v>44.90531106778</v>
+        <v>66.50332289829601</v>
       </c>
       <c r="S6">
-        <v>0.001682287914166742</v>
+        <v>0.001184332748244765</v>
       </c>
       <c r="T6">
-        <v>0.001682287914166742</v>
+        <v>0.001184332748244765</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>0.314602</v>
       </c>
       <c r="I7">
-        <v>0.003736852651705335</v>
+        <v>0.002244435796517234</v>
       </c>
       <c r="J7">
-        <v>0.003736852651705335</v>
+        <v>0.002244435796517234</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>29.489171</v>
       </c>
       <c r="O7">
-        <v>0.09300808131111739</v>
+        <v>0.07361176802536967</v>
       </c>
       <c r="P7">
-        <v>0.09300808131111736</v>
+        <v>0.07361176802536967</v>
       </c>
       <c r="Q7">
         <v>1.030816908326889</v>
@@ -883,10 +883,10 @@
         <v>9.277352174941999</v>
       </c>
       <c r="S7">
-        <v>0.0003475574952774744</v>
+        <v>0.0001652168872010625</v>
       </c>
       <c r="T7">
-        <v>0.0003475574952774743</v>
+        <v>0.0001652168872010624</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>0.314602</v>
       </c>
       <c r="I8">
-        <v>0.003736852651705335</v>
+        <v>0.002244435796517234</v>
       </c>
       <c r="J8">
-        <v>0.003736852651705335</v>
+        <v>0.002244435796517234</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>37.34441866666666</v>
+        <v>42.505498</v>
       </c>
       <c r="N8">
-        <v>112.033256</v>
+        <v>127.516494</v>
       </c>
       <c r="O8">
-        <v>0.3533499868001453</v>
+        <v>0.3183105613832428</v>
       </c>
       <c r="P8">
-        <v>0.3533499868001453</v>
+        <v>0.3183105613832428</v>
       </c>
       <c r="Q8">
-        <v>3.916209600456888</v>
+        <v>4.457438227265333</v>
       </c>
       <c r="R8">
-        <v>35.245886404112</v>
+        <v>40.116944045388</v>
       </c>
       <c r="S8">
-        <v>0.001320416835154168</v>
+        <v>0.0007144276183780467</v>
       </c>
       <c r="T8">
-        <v>0.001320416835154168</v>
+        <v>0.0007144276183780465</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>0.314602</v>
       </c>
       <c r="I9">
-        <v>0.003736852651705335</v>
+        <v>0.002244435796517234</v>
       </c>
       <c r="J9">
-        <v>0.003736852651705335</v>
+        <v>0.002244435796517234</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.933664</v>
+        <v>10.73653933333333</v>
       </c>
       <c r="N9">
-        <v>32.80099199999999</v>
+        <v>32.209618</v>
       </c>
       <c r="O9">
-        <v>0.1034534789405002</v>
+        <v>0.08040263079629371</v>
       </c>
       <c r="P9">
-        <v>0.1034534789405002</v>
+        <v>0.08040263079629371</v>
       </c>
       <c r="Q9">
-        <v>1.146584187242667</v>
+        <v>1.125912249115111</v>
       </c>
       <c r="R9">
-        <v>10.319257685184</v>
+        <v>10.133210242036</v>
       </c>
       <c r="S9">
-        <v>0.0003865904071069504</v>
+        <v>0.0001804585426933606</v>
       </c>
       <c r="T9">
-        <v>0.0003865904071069503</v>
+        <v>0.0001804585426933606</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.3150376666666666</v>
+        <v>0.547937</v>
       </c>
       <c r="H10">
-        <v>0.9451129999999999</v>
+        <v>1.643811</v>
       </c>
       <c r="I10">
-        <v>0.01122608254305816</v>
+        <v>0.01172728797372169</v>
       </c>
       <c r="J10">
-        <v>0.01122608254305816</v>
+        <v>0.01172728797372169</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>47.57896333333333</v>
+        <v>70.46291600000001</v>
       </c>
       <c r="N10">
-        <v>142.73689</v>
+        <v>211.388748</v>
       </c>
       <c r="O10">
-        <v>0.4501884529482371</v>
+        <v>0.5276750397950939</v>
       </c>
       <c r="P10">
-        <v>0.450188452948237</v>
+        <v>0.5276750397950939</v>
       </c>
       <c r="Q10">
-        <v>14.98916559095222</v>
+        <v>38.609238804292</v>
       </c>
       <c r="R10">
-        <v>134.90249031857</v>
+        <v>347.483149238628</v>
       </c>
       <c r="S10">
-        <v>0.005053852732728565</v>
+        <v>0.006188197148222121</v>
       </c>
       <c r="T10">
-        <v>0.005053852732728564</v>
+        <v>0.006188197148222119</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.3150376666666666</v>
+        <v>0.547937</v>
       </c>
       <c r="H11">
-        <v>0.9451129999999999</v>
+        <v>1.643811</v>
       </c>
       <c r="I11">
-        <v>0.01122608254305816</v>
+        <v>0.01172728797372169</v>
       </c>
       <c r="J11">
-        <v>0.01122608254305816</v>
+        <v>0.01172728797372169</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>29.489171</v>
       </c>
       <c r="O11">
-        <v>0.09300808131111739</v>
+        <v>0.07361176802536967</v>
       </c>
       <c r="P11">
-        <v>0.09300808131111736</v>
+        <v>0.07361176802536967</v>
       </c>
       <c r="Q11">
-        <v>3.096733207924777</v>
+        <v>5.386069296742333</v>
       </c>
       <c r="R11">
-        <v>27.87059887132299</v>
+        <v>48.474623670681</v>
       </c>
       <c r="S11">
-        <v>0.001044116397970069</v>
+        <v>0.0008632664018883088</v>
       </c>
       <c r="T11">
-        <v>0.001044116397970069</v>
+        <v>0.0008632664018883086</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.3150376666666666</v>
+        <v>0.547937</v>
       </c>
       <c r="H12">
-        <v>0.9451129999999999</v>
+        <v>1.643811</v>
       </c>
       <c r="I12">
-        <v>0.01122608254305816</v>
+        <v>0.01172728797372169</v>
       </c>
       <c r="J12">
-        <v>0.01122608254305816</v>
+        <v>0.01172728797372169</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>37.34441866666666</v>
+        <v>42.505498</v>
       </c>
       <c r="N12">
-        <v>112.033256</v>
+        <v>127.516494</v>
       </c>
       <c r="O12">
-        <v>0.3533499868001453</v>
+        <v>0.3183105613832428</v>
       </c>
       <c r="P12">
-        <v>0.3533499868001453</v>
+        <v>0.3183105613832428</v>
       </c>
       <c r="Q12">
-        <v>11.76489851976977</v>
+        <v>23.290335057626</v>
       </c>
       <c r="R12">
-        <v>105.884086677928</v>
+        <v>209.613015518634</v>
       </c>
       <c r="S12">
-        <v>0.003966736118406943</v>
+        <v>0.003732919618418304</v>
       </c>
       <c r="T12">
-        <v>0.003966736118406942</v>
+        <v>0.003732919618418303</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.3150376666666666</v>
+        <v>0.547937</v>
       </c>
       <c r="H13">
-        <v>0.9451129999999999</v>
+        <v>1.643811</v>
       </c>
       <c r="I13">
-        <v>0.01122608254305816</v>
+        <v>0.01172728797372169</v>
       </c>
       <c r="J13">
-        <v>0.01122608254305816</v>
+        <v>0.01172728797372169</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.933664</v>
+        <v>10.73653933333333</v>
       </c>
       <c r="N13">
-        <v>32.80099199999999</v>
+        <v>32.209618</v>
       </c>
       <c r="O13">
-        <v>0.1034534789405002</v>
+        <v>0.08040263079629371</v>
       </c>
       <c r="P13">
-        <v>0.1034534789405002</v>
+        <v>0.08040263079629371</v>
       </c>
       <c r="Q13">
-        <v>3.444515994677332</v>
+        <v>5.882947152688667</v>
       </c>
       <c r="R13">
-        <v>31.00064395209599</v>
+        <v>52.946524374198</v>
       </c>
       <c r="S13">
-        <v>0.001161377293952585</v>
+        <v>0.0009429048051929608</v>
       </c>
       <c r="T13">
-        <v>0.001161377293952585</v>
+        <v>0.0009429048051929604</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.02177466666666667</v>
+        <v>0.08900066666666666</v>
       </c>
       <c r="H14">
-        <v>0.06532400000000001</v>
+        <v>0.267002</v>
       </c>
       <c r="I14">
-        <v>0.0007759205682735626</v>
+        <v>0.001904847542424061</v>
       </c>
       <c r="J14">
-        <v>0.0007759205682735626</v>
+        <v>0.001904847542424061</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>47.57896333333333</v>
+        <v>70.46291600000001</v>
       </c>
       <c r="N14">
-        <v>142.73689</v>
+        <v>211.388748</v>
       </c>
       <c r="O14">
-        <v>0.4501884529482371</v>
+        <v>0.5276750397950939</v>
       </c>
       <c r="P14">
-        <v>0.450188452948237</v>
+        <v>0.5276750397950939</v>
       </c>
       <c r="Q14">
-        <v>1.036016066928889</v>
+        <v>6.271246499277334</v>
       </c>
       <c r="R14">
-        <v>9.324144602360001</v>
+        <v>56.441218493496</v>
       </c>
       <c r="S14">
-        <v>0.0003493104802417921</v>
+        <v>0.001005140502752203</v>
       </c>
       <c r="T14">
-        <v>0.0003493104802417921</v>
+        <v>0.001005140502752203</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.02177466666666667</v>
+        <v>0.08900066666666666</v>
       </c>
       <c r="H15">
-        <v>0.06532400000000001</v>
+        <v>0.267002</v>
       </c>
       <c r="I15">
-        <v>0.0007759205682735626</v>
+        <v>0.001904847542424061</v>
       </c>
       <c r="J15">
-        <v>0.0007759205682735626</v>
+        <v>0.001904847542424061</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>29.489171</v>
       </c>
       <c r="O15">
-        <v>0.09300808131111739</v>
+        <v>0.07361176802536967</v>
       </c>
       <c r="P15">
-        <v>0.09300808131111736</v>
+        <v>0.07361176802536967</v>
       </c>
       <c r="Q15">
-        <v>0.2140389562671111</v>
+        <v>0.8748519594824443</v>
       </c>
       <c r="R15">
-        <v>1.926350606404</v>
+        <v>7.873667635341999</v>
       </c>
       <c r="S15">
-        <v>7.216688330495593E-05</v>
+        <v>0.0001402191954166155</v>
       </c>
       <c r="T15">
-        <v>7.21668833049559E-05</v>
+        <v>0.0001402191954166155</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.02177466666666667</v>
+        <v>0.08900066666666666</v>
       </c>
       <c r="H16">
-        <v>0.06532400000000001</v>
+        <v>0.267002</v>
       </c>
       <c r="I16">
-        <v>0.0007759205682735626</v>
+        <v>0.001904847542424061</v>
       </c>
       <c r="J16">
-        <v>0.0007759205682735626</v>
+        <v>0.001904847542424061</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>37.34441866666666</v>
+        <v>42.505498</v>
       </c>
       <c r="N16">
-        <v>112.033256</v>
+        <v>127.516494</v>
       </c>
       <c r="O16">
-        <v>0.3533499868001453</v>
+        <v>0.3183105613832428</v>
       </c>
       <c r="P16">
-        <v>0.3533499868001453</v>
+        <v>0.3183105613832428</v>
       </c>
       <c r="Q16">
-        <v>0.813162268327111</v>
+        <v>3.783017658998666</v>
       </c>
       <c r="R16">
-        <v>7.318460414944</v>
+        <v>34.04715893098799</v>
       </c>
       <c r="S16">
-        <v>0.0002741715225574246</v>
+        <v>0.0006063330905784934</v>
       </c>
       <c r="T16">
-        <v>0.0002741715225574246</v>
+        <v>0.0006063330905784934</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.02177466666666667</v>
+        <v>0.08900066666666666</v>
       </c>
       <c r="H17">
-        <v>0.06532400000000001</v>
+        <v>0.267002</v>
       </c>
       <c r="I17">
-        <v>0.0007759205682735626</v>
+        <v>0.001904847542424061</v>
       </c>
       <c r="J17">
-        <v>0.0007759205682735626</v>
+        <v>0.001904847542424061</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.933664</v>
+        <v>10.73653933333333</v>
       </c>
       <c r="N17">
-        <v>32.80099199999999</v>
+        <v>32.209618</v>
       </c>
       <c r="O17">
-        <v>0.1034534789405002</v>
+        <v>0.08040263079629371</v>
       </c>
       <c r="P17">
-        <v>0.1034534789405002</v>
+        <v>0.08040263079629371</v>
       </c>
       <c r="Q17">
-        <v>0.2380768890453333</v>
+        <v>0.9555591583595554</v>
       </c>
       <c r="R17">
-        <v>2.142692001408</v>
+        <v>8.600032425235998</v>
       </c>
       <c r="S17">
-        <v>8.027168216938999E-05</v>
+        <v>0.0001531547536767493</v>
       </c>
       <c r="T17">
-        <v>8.027168216938996E-05</v>
+        <v>0.0001531547536767492</v>
       </c>
     </row>
   </sheetData>
